--- a/results/cifar10_training/results_rehearsal_0.3_cifar10.xlsx
+++ b/results/cifar10_training/results_rehearsal_0.3_cifar10.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.321917181092549</v>
+        <v>1.290488610422708</v>
       </c>
       <c r="D3">
-        <v>0.9965287844340006</v>
+        <v>0.9606133699417114</v>
       </c>
       <c r="E3">
-        <v>29.29</v>
+        <v>30.09</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.005113075518608093</v>
+        <v>0.004967207622528076</v>
       </c>
       <c r="J3">
-        <v>58.58</v>
+        <v>60.18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9552546889801335</v>
+        <v>0.9323619061369237</v>
       </c>
       <c r="D4">
-        <v>0.8224484324455261</v>
+        <v>0.7937275767326355</v>
       </c>
       <c r="E4">
-        <v>32.73</v>
+        <v>33.48</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.05593100986480713</v>
+        <v>0.0621964340209961</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8254635828297313</v>
+        <v>0.8140967444675725</v>
       </c>
       <c r="D5">
-        <v>0.7333640853563944</v>
+        <v>0.7185885310173035</v>
       </c>
       <c r="E5">
-        <v>35.59</v>
+        <v>35.36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.004267138838768006</v>
+        <v>0.004223449516296386</v>
       </c>
       <c r="J5">
-        <v>65.45999999999999</v>
+        <v>66.95999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7242293900590602</v>
+        <v>0.7231830159823099</v>
       </c>
       <c r="D6">
-        <v>0.6875174641609192</v>
+        <v>0.6692947745323181</v>
       </c>
       <c r="E6">
-        <v>36.47</v>
+        <v>36.31</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.06217843189239502</v>
+        <v>0.06490818042755127</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.6530730927862772</v>
+        <v>0.646838620426209</v>
       </c>
       <c r="D7">
-        <v>0.6096462110678355</v>
+        <v>0.5445667505264282</v>
       </c>
       <c r="E7">
-        <v>37.14</v>
+        <v>37.81</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.003728633892536163</v>
+        <v>0.003790836310386658</v>
       </c>
       <c r="J7">
-        <v>71.18000000000001</v>
+        <v>70.72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.5907232749268292</v>
+        <v>0.5919867014981867</v>
       </c>
       <c r="D8">
-        <v>0.6056002179781595</v>
+        <v>0.6662553548812866</v>
       </c>
       <c r="E8">
-        <v>38.23</v>
+        <v>37.17</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.06808884925842285</v>
+        <v>0.06184220600128174</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5436305815611429</v>
+        <v>0.5469565362465091</v>
       </c>
       <c r="D9">
-        <v>0.5501206517219543</v>
+        <v>0.6080305576324463</v>
       </c>
       <c r="E9">
-        <v>38.92</v>
+        <v>38.83</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.003514650559425354</v>
+        <v>0.00356840569972992</v>
       </c>
       <c r="J9">
-        <v>72.94</v>
+        <v>72.62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4897766971006626</v>
+        <v>0.5012115724687654</v>
       </c>
       <c r="D10">
-        <v>0.4908413489659627</v>
+        <v>0.527910590171814</v>
       </c>
       <c r="E10">
-        <v>39.58</v>
+        <v>39.3</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.07360053462982177</v>
+        <v>0.06149169750213623</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4583731080458416</v>
+        <v>0.4611480221515749</v>
       </c>
       <c r="D11">
-        <v>0.56835009654363</v>
+        <v>0.5739777088165283</v>
       </c>
       <c r="E11">
-        <v>38.62</v>
+        <v>38.68</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.003282871413230896</v>
+        <v>0.003311353826522827</v>
       </c>
       <c r="J11">
-        <v>74.28</v>
+        <v>75.62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4288487461039691</v>
+        <v>0.4264370556769332</v>
       </c>
       <c r="D12">
-        <v>0.5387527743975321</v>
+        <v>0.5177125930786133</v>
       </c>
       <c r="E12">
-        <v>39.78</v>
+        <v>39.93</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06804954280853272</v>
+        <v>0.06316901931762696</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.3857165091648335</v>
+        <v>0.3983947343942595</v>
       </c>
       <c r="D13">
-        <v>0.4801633059978485</v>
+        <v>0.5028178691864014</v>
       </c>
       <c r="E13">
-        <v>40.14</v>
+        <v>40.3</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.003069162482023239</v>
+        <v>0.003296428000926971</v>
       </c>
       <c r="J13">
-        <v>76.45999999999999</v>
+        <v>74.34</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.342735252486981</v>
+        <v>0.3604689899498854</v>
       </c>
       <c r="D14">
-        <v>0.4723970691363017</v>
+        <v>0.553508996963501</v>
       </c>
       <c r="E14">
-        <v>40.03</v>
+        <v>39.56</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.07093736000061035</v>
+        <v>0.06440979900360107</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.321790263420198</v>
+        <v>0.3173234694130053</v>
       </c>
       <c r="D15">
-        <v>0.5716135104497274</v>
+        <v>0.4834385812282562</v>
       </c>
       <c r="E15">
-        <v>39.23</v>
+        <v>40.63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.002908179301023483</v>
+        <v>0.002965148049592972</v>
       </c>
       <c r="J15">
-        <v>77.84</v>
+        <v>77.66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.284009988715009</v>
+        <v>0.2943797344114722</v>
       </c>
       <c r="D16">
-        <v>0.5391346017519633</v>
+        <v>0.45298171043396</v>
       </c>
       <c r="E16">
-        <v>40.3</v>
+        <v>40.25</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.07135681018829346</v>
+        <v>0.06990181789398194</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.244988238908411</v>
+        <v>0.2598786898017899</v>
       </c>
       <c r="D17">
-        <v>0.4628458122412364</v>
+        <v>0.4568870961666107</v>
       </c>
       <c r="E17">
         <v>40.37</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.00276993972659111</v>
+        <v>0.002859937787055969</v>
       </c>
       <c r="J17">
-        <v>79.16</v>
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.228590223483923</v>
+        <v>0.2309827367222406</v>
       </c>
       <c r="D18">
-        <v>0.5423113306363424</v>
+        <v>0.5752716064453125</v>
       </c>
       <c r="E18">
-        <v>40.18</v>
+        <v>39.8</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.08345287818908692</v>
+        <v>0.06673384628295899</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.193574308319305</v>
+        <v>0.1901653865730859</v>
       </c>
       <c r="D19">
-        <v>0.6324609418710073</v>
+        <v>0.5128313899040222</v>
       </c>
       <c r="E19">
-        <v>40.01</v>
+        <v>40.85</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.003008872807025909</v>
+        <v>0.002896086877584457</v>
       </c>
       <c r="J19">
-        <v>77.23999999999999</v>
+        <v>77.36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1607769590204324</v>
+        <v>0.1681795910727687</v>
       </c>
       <c r="D20">
-        <v>0.5464184184869131</v>
+        <v>0.5034846663475037</v>
       </c>
       <c r="E20">
-        <v>40.12</v>
+        <v>40.39</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.07475812721252441</v>
+        <v>0.06559838676452637</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1320801856132542</v>
+        <v>0.1457396336202699</v>
       </c>
       <c r="D21">
-        <v>0.6442630290985107</v>
+        <v>0.5469853281974792</v>
       </c>
       <c r="E21">
-        <v>39.82</v>
+        <v>40.28</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.002827190274000168</v>
+        <v>0.002720526754856109</v>
       </c>
       <c r="J21">
-        <v>79.56</v>
+        <v>79.86</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.1229750608222756</v>
+        <v>0.2041267418885619</v>
       </c>
       <c r="D22">
-        <v>0.6341795921325684</v>
+        <v>0.4423268735408783</v>
       </c>
       <c r="E22">
-        <v>39.7</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.08029258728027344</v>
+        <v>0.073054545211792</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.1642488197582524</v>
+        <v>0.181529063034833</v>
       </c>
       <c r="D23">
-        <v>0.4505542914072673</v>
+        <v>0.4321183860301971</v>
       </c>
       <c r="E23">
-        <v>40.98</v>
+        <v>40.74</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.00269224579334259</v>
+        <v>0.002674389415979386</v>
       </c>
       <c r="J23">
-        <v>80.28</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1467176168187847</v>
+        <v>0.17133870842011</v>
       </c>
       <c r="D24">
-        <v>0.4939209719498952</v>
+        <v>0.4594159126281738</v>
       </c>
       <c r="E24">
-        <v>40.84</v>
+        <v>40.75</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.08482305145263672</v>
+        <v>0.07460905399322509</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1331462581467822</v>
+        <v>0.1630529815830835</v>
       </c>
       <c r="D25">
-        <v>0.4721229672431946</v>
+        <v>0.4806934297084808</v>
       </c>
       <c r="E25">
-        <v>40.88</v>
+        <v>40.8</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.002715241050720215</v>
+        <v>0.00286781450510025</v>
       </c>
       <c r="J25">
-        <v>80.06</v>
+        <v>79.12</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.1247472695218838</v>
+        <v>0.1510150392002207</v>
       </c>
       <c r="D26">
-        <v>0.4821646710236867</v>
+        <v>0.5035359263420105</v>
       </c>
       <c r="E26">
-        <v>40.83</v>
+        <v>40.84</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.08396831893920899</v>
+        <v>0.08152741279602051</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1163662895863134</v>
+        <v>0.1439113893160006</v>
       </c>
       <c r="D27">
-        <v>0.564951499303182</v>
+        <v>0.4809373617172241</v>
       </c>
       <c r="E27">
-        <v>40.83</v>
+        <v>40.5</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.002951833075284958</v>
+        <v>0.002681696128845215</v>
       </c>
       <c r="J27">
-        <v>78.45999999999999</v>
+        <v>81.26000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1095247299569409</v>
+        <v>0.1333143519071059</v>
       </c>
       <c r="D28">
-        <v>0.5425117313861847</v>
+        <v>0.5144516825675964</v>
       </c>
       <c r="E28">
-        <v>40.98</v>
+        <v>40.8</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.08165795459747315</v>
+        <v>0.08281351470947265</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.13874182589655</v>
+        <v>0.1630096201126169</v>
       </c>
       <c r="D29">
-        <v>0.498339573542277</v>
+        <v>0.4457772672176361</v>
       </c>
       <c r="E29">
-        <v>40.89</v>
+        <v>41.09</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.002796281856298446</v>
+        <v>0.00274380065202713</v>
       </c>
       <c r="J29">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.1343797914744393</v>
+        <v>0.1593712888112882</v>
       </c>
       <c r="D30">
-        <v>0.5205361346403757</v>
+        <v>0.4770563840866089</v>
       </c>
       <c r="E30">
-        <v>40.91</v>
+        <v>41.07</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.09076242065429688</v>
+        <v>0.07792977714538574</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.1313226820855606</v>
+        <v>0.1566095089888185</v>
       </c>
       <c r="D31">
-        <v>0.5436103443304697</v>
+        <v>0.4730854630470276</v>
       </c>
       <c r="E31">
-        <v>41.01</v>
+        <v>40.97</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.002872867786884308</v>
+        <v>0.002855213737487793</v>
       </c>
       <c r="J31">
         <v>80.73999999999999</v>
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.1282830845292021</v>
+        <v>0.1539362828905989</v>
       </c>
       <c r="D32">
-        <v>0.4758782585461934</v>
+        <v>0.4510423541069031</v>
       </c>
       <c r="E32">
-        <v>41.02</v>
+        <v>40.83</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.09001238708496094</v>
+        <v>0.08989299545288086</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.12611831555037</v>
+        <v>0.1511047075434429</v>
       </c>
       <c r="D33">
-        <v>0.4984557827313741</v>
+        <v>0.463871568441391</v>
       </c>
       <c r="E33">
-        <v>40.93</v>
+        <v>40.88</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.003047788298130035</v>
+        <v>0.003068817234039307</v>
       </c>
       <c r="J33">
-        <v>80.36</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.1386210778500976</v>
+        <v>0.162544337956886</v>
       </c>
       <c r="D34">
-        <v>0.5010916491349539</v>
+        <v>0.4311961531639099</v>
       </c>
       <c r="E34">
-        <v>41.04</v>
+        <v>41.11</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.09863284034729004</v>
+        <v>0.08611811637878418</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.1360354915988155</v>
+        <v>0.1598554796319667</v>
       </c>
       <c r="D35">
-        <v>0.4836783508459727</v>
+        <v>0.4684600830078125</v>
       </c>
       <c r="E35">
-        <v>41.02</v>
+        <v>41.09</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.003127372175455093</v>
+        <v>0.002948307985067367</v>
       </c>
       <c r="J35">
-        <v>80.02</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.1347157414245412</v>
+        <v>0.1592448719633304</v>
       </c>
       <c r="D36">
-        <v>0.4602058529853821</v>
+        <v>0.4584876298904419</v>
       </c>
       <c r="E36">
-        <v>41.02</v>
+        <v>41.08</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.09946529197692872</v>
+        <v>0.09888654251098633</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.1338588237399008</v>
+        <v>0.1580535257008018</v>
       </c>
       <c r="D37">
-        <v>0.4778855840365092</v>
+        <v>0.4466825723648071</v>
       </c>
       <c r="E37">
-        <v>40.97</v>
+        <v>41.01</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.003375150299072266</v>
+        <v>0.003169571524858475</v>
       </c>
       <c r="J37">
-        <v>80.23999999999999</v>
+        <v>80.78</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.1330703470886238</v>
+        <v>0.1577295983831088</v>
       </c>
       <c r="D38">
-        <v>0.4782734910647075</v>
+        <v>0.5082990527153015</v>
       </c>
       <c r="E38">
-        <v>41.04</v>
+        <v>41.05</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.1078801830291748</v>
+        <v>0.0980901138305664</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.1404821240320438</v>
+        <v>0.1566618650667067</v>
       </c>
       <c r="D39">
-        <v>0.4895118077596028</v>
+        <v>0.4942273497581482</v>
       </c>
       <c r="E39">
-        <v>41.09</v>
+        <v>41.07</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.003615153694152832</v>
+        <v>0.003159685015678406</v>
       </c>
       <c r="J39">
-        <v>79.64</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.1381746850362638</v>
+        <v>0.1598495583587546</v>
       </c>
       <c r="D40">
-        <v>0.515574723482132</v>
+        <v>0.4713877439498901</v>
       </c>
       <c r="E40">
-        <v>41.09</v>
+        <v>41.04</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.1079140254974365</v>
+        <v>0.09963242378234863</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.1370979202835541</v>
+        <v>0.1593745287840929</v>
       </c>
       <c r="D41">
-        <v>0.4926077524820964</v>
+        <v>0.4878877103328705</v>
       </c>
       <c r="E41">
-        <v>41.08</v>
+        <v>41.05</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.003818979334831238</v>
+        <v>0.002676605755090713</v>
       </c>
       <c r="J41">
-        <v>79.40000000000001</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.1365060295031323</v>
+        <v>0.1591438246451742</v>
       </c>
       <c r="D42">
-        <v>0.5073581834634145</v>
+        <v>0.4784481525421143</v>
       </c>
       <c r="E42">
-        <v>41.04</v>
+        <v>41.08</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.1178683307647705</v>
+        <v>0.09510349044799804</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.1361030528579301</v>
+        <v>0.1589779964670902</v>
       </c>
       <c r="D43">
-        <v>0.4616165161132812</v>
+        <v>0.4694124162197113</v>
       </c>
       <c r="E43">
-        <v>41.02</v>
+        <v>41.08</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1639,13 +1639,28 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.002816853785514831</v>
+        <v>0.002738664066791535</v>
       </c>
       <c r="J43">
-        <v>81.95999999999999</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="44" spans="1:10">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.1587995451882603</v>
+      </c>
+      <c r="D44">
+        <v>0.4648743271827698</v>
+      </c>
+      <c r="E44">
+        <v>41.02</v>
+      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -1653,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.1078334075927734</v>
+        <v>0.09983291130065917</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1667,10 +1682,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.002887908774614334</v>
+        <v>0.002815863353013992</v>
       </c>
       <c r="J45">
-        <v>81.68000000000001</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1681,7 +1696,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.1126075355529785</v>
+        <v>0.1030757675170898</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1695,10 +1710,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.002984785741567612</v>
+        <v>0.002866652351617813</v>
       </c>
       <c r="J47">
-        <v>81.76000000000001</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1709,7 +1724,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.1177096641540527</v>
+        <v>0.1057786632537842</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1723,10 +1738,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.003022686851024628</v>
+        <v>0.002909226804971695</v>
       </c>
       <c r="J49">
-        <v>81.66</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1737,7 +1752,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.1186448547363281</v>
+        <v>0.1060194301605225</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1751,10 +1766,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.003117098557949066</v>
+        <v>0.002958099293708801</v>
       </c>
       <c r="J51">
-        <v>81.66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1765,7 +1780,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.1213385387420654</v>
+        <v>0.1081763214111328</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1779,10 +1794,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.003185765641927719</v>
+        <v>0.002940332567691803</v>
       </c>
       <c r="J53">
-        <v>81.95999999999999</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1793,7 +1808,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.1275065406799316</v>
+        <v>0.1096914894104004</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1807,10 +1822,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.002845054227113724</v>
+        <v>0.002723269438743591</v>
       </c>
       <c r="J55">
-        <v>81.78</v>
+        <v>82.18000000000001</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1821,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.1120291606903076</v>
+        <v>0.1018948413848877</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1835,10 +1850,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.00284854725599289</v>
+        <v>0.002748050719499588</v>
       </c>
       <c r="J57">
-        <v>81.81999999999999</v>
+        <v>82.14</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1849,7 +1864,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.1125270462036133</v>
+        <v>0.1035294151306152</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1863,10 +1878,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.002880232828855515</v>
+        <v>0.002768939912319184</v>
       </c>
       <c r="J59">
-        <v>82.02</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1877,7 +1892,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.1145032981872559</v>
+        <v>0.1049782077789307</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1891,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.002901082807779312</v>
+        <v>0.002771574753522873</v>
       </c>
       <c r="J61">
-        <v>82.04000000000001</v>
+        <v>81.66</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1905,7 +1920,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.1166145370483399</v>
+        <v>0.1039951030731201</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1919,10 +1934,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.002922920429706574</v>
+        <v>0.00278544345498085</v>
       </c>
       <c r="J63">
-        <v>81.86</v>
+        <v>81.76000000000001</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1933,7 +1948,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.1178508358001709</v>
+        <v>0.1047547275543213</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1947,10 +1962,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.002817019242048263</v>
+        <v>0.00271029252409935</v>
       </c>
       <c r="J65">
-        <v>82.08</v>
+        <v>82.22</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1961,7 +1976,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.1105569564819336</v>
+        <v>0.1012217929840088</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -1975,10 +1990,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.002827517980337143</v>
+        <v>0.00272019162774086</v>
       </c>
       <c r="J67">
-        <v>82.04000000000001</v>
+        <v>82.18000000000001</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -1989,7 +2004,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.1115990589141846</v>
+        <v>0.1014906105041504</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2003,10 +2018,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.002836115366220474</v>
+        <v>0.00272432165145874</v>
       </c>
       <c r="J69">
-        <v>82.04000000000001</v>
+        <v>82.16</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2017,7 +2032,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.1122270175933838</v>
+        <v>0.102152428817749</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2031,10 +2046,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.002836096811294556</v>
+        <v>0.002733148020505905</v>
       </c>
       <c r="J71">
-        <v>81.94</v>
+        <v>82.02</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2045,7 +2060,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.1125483860015869</v>
+        <v>0.1025022903442383</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2059,10 +2074,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.002846763604879379</v>
+        <v>0.002733013361692428</v>
       </c>
       <c r="J73">
-        <v>82.08</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2073,7 +2088,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.1132879127502441</v>
+        <v>0.1027321685791016</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2087,10 +2102,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.00280825030207634</v>
+        <v>0.002736765533685684</v>
       </c>
       <c r="J75">
-        <v>82.18000000000001</v>
+        <v>82.14</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2101,7 +2116,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.1088016952514648</v>
+        <v>0.1029097560882568</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2115,10 +2130,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.002810478913784027</v>
+        <v>0.002712890917062759</v>
       </c>
       <c r="J77">
-        <v>82.18000000000001</v>
+        <v>82.08</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2129,7 +2144,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.1095418792724609</v>
+        <v>0.1013065414428711</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2143,10 +2158,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.002813185930252075</v>
+        <v>0.0027144446849823</v>
       </c>
       <c r="J79">
-        <v>82.16</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -2157,7 +2172,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.1100775268554687</v>
+        <v>0.1014667602539062</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2171,10 +2186,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.002816061192750931</v>
+        <v>0.00271620341539383</v>
       </c>
       <c r="J81">
-        <v>82.08</v>
+        <v>82.16</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -2185,7 +2200,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.1104796546936035</v>
+        <v>0.1015797264099121</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2199,10 +2214,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.002818390583992005</v>
+        <v>0.002717383915185928</v>
       </c>
       <c r="J83">
-        <v>82.04000000000001</v>
+        <v>82.16</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -2213,9 +2228,37 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.1107937911987305</v>
+        <v>0.1016891994476318</v>
       </c>
       <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>0.002719624018669128</v>
+      </c>
+      <c r="J85">
+        <v>82.04000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>42</v>
+      </c>
+      <c r="I86">
+        <v>0.1017961574554443</v>
+      </c>
+      <c r="J86">
         <v>0</v>
       </c>
     </row>
@@ -2230,7 +2273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2289,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.880451878905296</v>
+        <v>1.738939910382032</v>
       </c>
       <c r="D3">
-        <v>1.314145743846893</v>
+        <v>1.170944929122925</v>
       </c>
       <c r="E3">
-        <v>40.19</v>
+        <v>43.94</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2304,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01182869205474854</v>
+        <v>0.01107542362213135</v>
       </c>
       <c r="J3">
-        <v>8.32</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2318,13 +2361,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.074248684942722</v>
+        <v>1.016607528179884</v>
       </c>
       <c r="D4">
-        <v>0.9838675856590271</v>
+        <v>0.9810812473297119</v>
       </c>
       <c r="E4">
-        <v>53.83</v>
+        <v>58.22</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2333,10 +2376,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.004759206664562226</v>
+        <v>0.004373899626731873</v>
       </c>
       <c r="J4">
-        <v>72.06</v>
+        <v>72.98</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2347,13 +2390,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8676194991916418</v>
+        <v>0.8456065021455288</v>
       </c>
       <c r="D5">
-        <v>0.9118646085262299</v>
+        <v>0.9075347781181335</v>
       </c>
       <c r="E5">
-        <v>58.94</v>
+        <v>60.03</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2362,10 +2405,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.009535061478614807</v>
+        <v>0.008098785829544068</v>
       </c>
       <c r="J5">
-        <v>28.92</v>
+        <v>39.54</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2376,13 +2419,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7633048932999372</v>
+        <v>0.7321936845779419</v>
       </c>
       <c r="D6">
-        <v>0.855236753821373</v>
+        <v>0.7741374373435974</v>
       </c>
       <c r="E6">
-        <v>62.42</v>
+        <v>65.13</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2391,10 +2434,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.003446039509773255</v>
+        <v>0.003714383542537689</v>
       </c>
       <c r="J6">
-        <v>78.73999999999999</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2405,13 +2448,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.6753777887672185</v>
+        <v>0.6471001792699098</v>
       </c>
       <c r="D7">
-        <v>0.8817821592092514</v>
+        <v>0.7549080848693848</v>
       </c>
       <c r="E7">
-        <v>62.3</v>
+        <v>66.44</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2420,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.008366532468795776</v>
+        <v>0.007954591608047486</v>
       </c>
       <c r="J7">
-        <v>37.94</v>
+        <v>41.42</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2434,13 +2477,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.6073812888935208</v>
+        <v>0.5812564166262746</v>
       </c>
       <c r="D8">
-        <v>0.86579729616642</v>
+        <v>0.7008323669433594</v>
       </c>
       <c r="E8">
-        <v>63.44</v>
+        <v>64.53999999999999</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2449,10 +2492,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.003154497218132019</v>
+        <v>0.003386004149913788</v>
       </c>
       <c r="J8">
-        <v>79.94</v>
+        <v>78.64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2463,13 +2506,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5438043797388673</v>
+        <v>0.5280685851350426</v>
       </c>
       <c r="D9">
-        <v>0.8141699880361557</v>
+        <v>0.7706725597381592</v>
       </c>
       <c r="E9">
-        <v>66.31999999999999</v>
+        <v>63.31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2478,10 +2521,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.007494364881515503</v>
+        <v>0.007183693194389343</v>
       </c>
       <c r="J9">
-        <v>44.7</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2492,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.492152675613761</v>
+        <v>0.4753897469490767</v>
       </c>
       <c r="D10">
-        <v>0.7455349415540695</v>
+        <v>0.6724323034286499</v>
       </c>
       <c r="E10">
-        <v>67.74000000000001</v>
+        <v>68.14</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2507,10 +2550,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.003018354415893555</v>
+        <v>0.002847671800851822</v>
       </c>
       <c r="J10">
-        <v>80.14</v>
+        <v>81.88</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2521,13 +2564,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4206291953101754</v>
+        <v>0.428303612396121</v>
       </c>
       <c r="D11">
-        <v>0.7387469857931137</v>
+        <v>0.7512025833129883</v>
       </c>
       <c r="E11">
-        <v>65.41</v>
+        <v>66.87</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2536,10 +2579,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.008095380067825318</v>
+        <v>0.007079072189331055</v>
       </c>
       <c r="J11">
-        <v>44.18</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2550,13 +2593,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.3772240683436394</v>
+        <v>0.3707553597167134</v>
       </c>
       <c r="D12">
-        <v>0.8306077271699905</v>
+        <v>0.7710330486297607</v>
       </c>
       <c r="E12">
-        <v>68.91</v>
+        <v>67.58</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2565,10 +2608,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.002961335837841034</v>
+        <v>0.002800826340913773</v>
       </c>
       <c r="J12">
-        <v>80.42</v>
+        <v>81.98</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2579,13 +2622,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.329033684451133</v>
+        <v>0.3331076242029667</v>
       </c>
       <c r="D13">
-        <v>0.8757763653993607</v>
+        <v>0.7134946584701538</v>
       </c>
       <c r="E13">
-        <v>68.94</v>
+        <v>69.78</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2594,10 +2637,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.00804546287059784</v>
+        <v>0.008043229031562805</v>
       </c>
       <c r="J13">
-        <v>45.28</v>
+        <v>44.36</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2608,13 +2651,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2810687663033605</v>
+        <v>0.280660364124924</v>
       </c>
       <c r="D14">
-        <v>0.8475284427404404</v>
+        <v>0.787464439868927</v>
       </c>
       <c r="E14">
-        <v>69.49000000000001</v>
+        <v>69.13</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2623,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.002873079562187195</v>
+        <v>0.002394005382061005</v>
       </c>
       <c r="J14">
-        <v>81.59999999999999</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2637,13 +2680,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.2305995005182922</v>
+        <v>0.2434786675497889</v>
       </c>
       <c r="D15">
-        <v>0.9512493759393692</v>
+        <v>0.798712432384491</v>
       </c>
       <c r="E15">
-        <v>68.04000000000001</v>
+        <v>67.81</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2652,10 +2695,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.007510523104667663</v>
+        <v>0.008473000741004945</v>
       </c>
       <c r="J15">
-        <v>49.44</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2666,13 +2709,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1887786297593266</v>
+        <v>0.3606554042547941</v>
       </c>
       <c r="D16">
-        <v>0.8739480525255203</v>
+        <v>0.7010977268218994</v>
       </c>
       <c r="E16">
-        <v>69.25</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2681,10 +2724,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.002581842756271362</v>
+        <v>0.002645332986116409</v>
       </c>
       <c r="J16">
-        <v>83.2</v>
+        <v>83.42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2695,13 +2738,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3158363538794219</v>
+        <v>0.339224792830646</v>
       </c>
       <c r="D17">
-        <v>0.7802864909172058</v>
+        <v>0.6563935875892639</v>
       </c>
       <c r="E17">
-        <v>70.26000000000001</v>
+        <v>69.92999999999999</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2710,10 +2753,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.007247472858428955</v>
+        <v>0.007405490040779113</v>
       </c>
       <c r="J17">
-        <v>51.92</v>
+        <v>51.76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2724,13 +2767,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.2911016024649143</v>
+        <v>0.3218196348287165</v>
       </c>
       <c r="D18">
-        <v>0.7970437258481979</v>
+        <v>0.7426814436912537</v>
       </c>
       <c r="E18">
-        <v>69.78</v>
+        <v>70.31</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2739,10 +2782,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.002537421959638596</v>
+        <v>0.002464601868391037</v>
       </c>
       <c r="J18">
-        <v>83.56</v>
+        <v>84.52</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2753,13 +2796,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.2781155194155872</v>
+        <v>0.3101021215319634</v>
       </c>
       <c r="D19">
-        <v>0.8280257135629654</v>
+        <v>0.6995609402656555</v>
       </c>
       <c r="E19">
-        <v>70.09999999999999</v>
+        <v>70.31</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2768,10 +2811,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.008882881593704223</v>
+        <v>0.008145833301544189</v>
       </c>
       <c r="J19">
-        <v>45.6</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2782,13 +2825,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.2655602024868131</v>
+        <v>0.2950436466373503</v>
       </c>
       <c r="D20">
-        <v>0.7773337811231613</v>
+        <v>0.7104528546333313</v>
       </c>
       <c r="E20">
-        <v>69.8</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2797,10 +2840,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.002390591382980347</v>
+        <v>0.002545285242795944</v>
       </c>
       <c r="J20">
-        <v>85.22</v>
+        <v>84.23999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2811,13 +2854,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.2493987125344574</v>
+        <v>0.2813446727581322</v>
       </c>
       <c r="D21">
-        <v>0.9005023539066315</v>
+        <v>0.7256647944450378</v>
       </c>
       <c r="E21">
-        <v>69.31</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2826,10 +2869,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.007376092076301574</v>
+        <v>0.007269003629684448</v>
       </c>
       <c r="J21">
-        <v>54.46</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2840,13 +2883,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.3223203082568943</v>
+        <v>0.2669312710873782</v>
       </c>
       <c r="D22">
-        <v>0.7335148304700851</v>
+        <v>0.6957859396934509</v>
       </c>
       <c r="E22">
-        <v>69.65000000000001</v>
+        <v>71.08</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2855,10 +2898,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.002602468585968018</v>
+        <v>0.00318298876285553</v>
       </c>
       <c r="J22">
-        <v>83.36</v>
+        <v>79.88</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2869,13 +2912,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.302889964170754</v>
+        <v>0.3103500259108841</v>
       </c>
       <c r="D23">
-        <v>0.740156352519989</v>
+        <v>0.6559922695159912</v>
       </c>
       <c r="E23">
-        <v>69.91</v>
+        <v>70.2</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2884,10 +2927,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.007389895701408386</v>
+        <v>0.007677479434013367</v>
       </c>
       <c r="J23">
-        <v>57.68</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2898,13 +2941,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.2943508760072291</v>
+        <v>0.3062870317138732</v>
       </c>
       <c r="D24">
-        <v>0.7328614443540573</v>
+        <v>0.6967664361000061</v>
       </c>
       <c r="E24">
-        <v>69.98</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2913,10 +2956,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.003130149376392364</v>
+        <v>0.002584148699045181</v>
       </c>
       <c r="J24">
-        <v>80.2</v>
+        <v>84.16</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2927,13 +2970,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.2872170933522284</v>
+        <v>0.3035004645586014</v>
       </c>
       <c r="D25">
-        <v>0.7382395416498184</v>
+        <v>0.673613429069519</v>
       </c>
       <c r="E25">
-        <v>70.06</v>
+        <v>70.62</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2942,10 +2985,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.007402750492095947</v>
+        <v>0.00877177710533142</v>
       </c>
       <c r="J25">
-        <v>58.2</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2956,13 +2999,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.2818359944038093</v>
+        <v>0.2998518233187497</v>
       </c>
       <c r="D26">
-        <v>0.7488590627908707</v>
+        <v>0.6461679935455322</v>
       </c>
       <c r="E26">
-        <v>70.26000000000001</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2971,10 +3014,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.003099968022108078</v>
+        <v>0.002600468981266022</v>
       </c>
       <c r="J26">
-        <v>80.78</v>
+        <v>84.88</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2985,13 +3028,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.2771104411222041</v>
+        <v>0.2948891149833798</v>
       </c>
       <c r="D27">
-        <v>0.7983568459749222</v>
+        <v>0.6884418129920959</v>
       </c>
       <c r="E27">
-        <v>69.92</v>
+        <v>70.69999999999999</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3000,10 +3043,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.009779893589019775</v>
+        <v>0.009518175363540649</v>
       </c>
       <c r="J27">
-        <v>51.38</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3014,13 +3057,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.2732805084437132</v>
+        <v>0.2921818010509014</v>
       </c>
       <c r="D28">
-        <v>0.7243005037307739</v>
+        <v>0.711503267288208</v>
       </c>
       <c r="E28">
-        <v>70.01000000000001</v>
+        <v>70.53</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3029,10 +3072,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.002579357713460922</v>
+        <v>0.002498338052630424</v>
       </c>
       <c r="J28">
-        <v>84.7</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3043,13 +3086,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.2692269795574248</v>
+        <v>0.2880368709564209</v>
       </c>
       <c r="D29">
-        <v>0.7632668763399124</v>
+        <v>0.6837104558944702</v>
       </c>
       <c r="E29">
-        <v>70.03</v>
+        <v>70.22</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -3058,10 +3101,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.009134068870544434</v>
+        <v>0.006977763700485229</v>
       </c>
       <c r="J29">
-        <v>55.52</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3072,13 +3115,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.2646102494560182</v>
+        <v>0.2844690585508943</v>
       </c>
       <c r="D30">
-        <v>0.7366552799940109</v>
+        <v>0.650556206703186</v>
       </c>
       <c r="E30">
-        <v>70.03999999999999</v>
+        <v>70.28</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3087,10 +3130,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.002968281841278076</v>
+        <v>0.00253496071100235</v>
       </c>
       <c r="J30">
-        <v>82.98</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3101,13 +3144,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.2610374362207949</v>
+        <v>0.2814193453639746</v>
       </c>
       <c r="D31">
-        <v>0.7516477108001709</v>
+        <v>0.6912579536437988</v>
       </c>
       <c r="E31">
-        <v>70.18000000000001</v>
+        <v>70.56</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3116,10 +3159,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.007331276965141296</v>
+        <v>0.007217898774147033</v>
       </c>
       <c r="J31">
-        <v>56.34</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3130,13 +3173,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.2571336020715534</v>
+        <v>0.2922834787517786</v>
       </c>
       <c r="D32">
-        <v>0.7839556187391281</v>
+        <v>0.696333110332489</v>
       </c>
       <c r="E32">
-        <v>70.47</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3145,10 +3188,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.002503630352020264</v>
+        <v>0.002453409194946289</v>
       </c>
       <c r="J32">
-        <v>84.18000000000001</v>
+        <v>84.81999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3159,13 +3202,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.2534655840136111</v>
+        <v>0.2929300742223859</v>
       </c>
       <c r="D33">
-        <v>0.7626176923513412</v>
+        <v>0.699480414390564</v>
       </c>
       <c r="E33">
-        <v>70.09999999999999</v>
+        <v>70.22</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3174,10 +3217,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.007550108122825623</v>
+        <v>0.007189100050926209</v>
       </c>
       <c r="J33">
-        <v>55.54</v>
+        <v>56.16</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3188,13 +3231,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.2652513808570802</v>
+        <v>0.2917757621966303</v>
       </c>
       <c r="D34">
-        <v>0.7417214959859848</v>
+        <v>0.6305152177810669</v>
       </c>
       <c r="E34">
-        <v>70.09999999999999</v>
+        <v>70.28999999999999</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3203,10 +3246,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.002586405563354492</v>
+        <v>0.002467556446790695</v>
       </c>
       <c r="J34">
-        <v>84.02</v>
+        <v>84.45999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3217,13 +3260,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.264792690705508</v>
+        <v>0.2902221869677305</v>
       </c>
       <c r="D35">
-        <v>0.788180336356163</v>
+        <v>0.6780655384063721</v>
       </c>
       <c r="E35">
-        <v>70.12</v>
+        <v>70.37</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3232,10 +3275,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.007616969180107117</v>
+        <v>0.007040760231018067</v>
       </c>
       <c r="J35">
-        <v>56.8</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3246,13 +3289,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.2656897693872452</v>
+        <v>0.2898061870597303</v>
       </c>
       <c r="D36">
-        <v>0.7895361185073853</v>
+        <v>0.7026084065437317</v>
       </c>
       <c r="E36">
-        <v>70.19</v>
+        <v>70.38</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3261,10 +3304,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.002600683885812759</v>
+        <v>0.002623744338750839</v>
       </c>
       <c r="J36">
-        <v>83.40000000000001</v>
+        <v>83.52</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3275,13 +3318,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.2628292254172265</v>
+        <v>0.2887120283208787</v>
       </c>
       <c r="D37">
-        <v>0.7656850069761276</v>
+        <v>0.6578689217567444</v>
       </c>
       <c r="E37">
-        <v>70.15000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3290,10 +3333,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.007821210789680481</v>
+        <v>0.007097259140014648</v>
       </c>
       <c r="J37">
-        <v>55.54</v>
+        <v>57.94</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3304,13 +3347,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.263574280589819</v>
+        <v>0.2870632166974246</v>
       </c>
       <c r="D38">
-        <v>0.7690050452947617</v>
+        <v>0.6734920740127563</v>
       </c>
       <c r="E38">
-        <v>70.14</v>
+        <v>70.28999999999999</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3319,10 +3362,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.002588414043188095</v>
+        <v>0.002597051268815994</v>
       </c>
       <c r="J38">
-        <v>84.06</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3333,13 +3376,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.2665002801455557</v>
+        <v>0.2872413402423263</v>
       </c>
       <c r="D39">
-        <v>0.7791938334703445</v>
+        <v>0.6871892809867859</v>
       </c>
       <c r="E39">
-        <v>70.09</v>
+        <v>70.52</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3348,10 +3391,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.007916572761535644</v>
+        <v>0.007498552298545838</v>
       </c>
       <c r="J39">
-        <v>55.38</v>
+        <v>56.46</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3362,13 +3405,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.2650094537995756</v>
+        <v>0.290324389282614</v>
       </c>
       <c r="D40">
-        <v>0.8436792343854904</v>
+        <v>0.6986438035964966</v>
       </c>
       <c r="E40">
-        <v>70.09999999999999</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3377,10 +3420,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.002712754881381989</v>
+        <v>0.002525380825996399</v>
       </c>
       <c r="J40">
-        <v>83.23999999999999</v>
+        <v>84.52</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3391,13 +3434,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.2649751395918429</v>
+        <v>0.2891283499076963</v>
       </c>
       <c r="D41">
-        <v>0.8254233151674271</v>
+        <v>0.6829261779785156</v>
       </c>
       <c r="E41">
-        <v>70.14</v>
+        <v>70.3</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3406,10 +3449,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.007362111973762513</v>
+        <v>0.007343193221092224</v>
       </c>
       <c r="J41">
-        <v>54.72</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3420,13 +3463,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.2650810918770731</v>
+        <v>0.2893303442746401</v>
       </c>
       <c r="D42">
-        <v>0.8014077544212341</v>
+        <v>0.6596935987472534</v>
       </c>
       <c r="E42">
-        <v>70.16</v>
+        <v>70.28</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3435,10 +3478,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.002435241079330444</v>
+        <v>0.00262673836350441</v>
       </c>
       <c r="J42">
-        <v>84.58</v>
+        <v>84.31999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3449,13 +3492,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.2646075367927551</v>
+        <v>0.2885503436438739</v>
       </c>
       <c r="D43">
-        <v>0.750704362988472</v>
+        <v>0.6403595209121704</v>
       </c>
       <c r="E43">
-        <v>70.14</v>
+        <v>70.31</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3464,13 +3507,28 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.007314919590950012</v>
+        <v>0.007133183407783508</v>
       </c>
       <c r="J43">
-        <v>55.34</v>
+        <v>55.92</v>
       </c>
     </row>
     <row r="44" spans="1:10">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.2885469966568053</v>
+      </c>
+      <c r="D44">
+        <v>0.6805553436279297</v>
+      </c>
+      <c r="E44">
+        <v>70.33</v>
+      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -3478,7 +3536,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.002472323596477509</v>
+        <v>0.00241992654800415</v>
       </c>
       <c r="J44">
         <v>84.48</v>
@@ -3492,10 +3550,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.007425156712532043</v>
+        <v>0.007016999530792236</v>
       </c>
       <c r="J45">
-        <v>55.56</v>
+        <v>57.04</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3506,10 +3564,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.002459576100111008</v>
+        <v>0.00246756506562233</v>
       </c>
       <c r="J46">
-        <v>84.40000000000001</v>
+        <v>84.26000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3520,10 +3578,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.00736985342502594</v>
+        <v>0.007041277074813843</v>
       </c>
       <c r="J47">
-        <v>55.82</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3534,10 +3592,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.002501000261306763</v>
+        <v>0.002484512192010879</v>
       </c>
       <c r="J48">
-        <v>84.3</v>
+        <v>84.34</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -3548,10 +3606,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.007422834610939026</v>
+        <v>0.007351775741577148</v>
       </c>
       <c r="J49">
-        <v>56.02</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -3562,10 +3620,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.002499252796173096</v>
+        <v>0.002416975468397141</v>
       </c>
       <c r="J50">
-        <v>84.5</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -3576,10 +3634,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.007651622200012207</v>
+        <v>0.007049862265586853</v>
       </c>
       <c r="J51">
-        <v>55.06</v>
+        <v>57.08</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -3590,10 +3648,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.002469053584337235</v>
+        <v>0.002511645090579987</v>
       </c>
       <c r="J52">
-        <v>84.78</v>
+        <v>84.31999999999999</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -3604,10 +3662,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.007579217624664306</v>
+        <v>0.007147968530654907</v>
       </c>
       <c r="J53">
-        <v>55.68</v>
+        <v>56.76</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -3618,10 +3676,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.002506443202495575</v>
+        <v>0.002482207065820694</v>
       </c>
       <c r="J54">
-        <v>84.34</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -3632,10 +3690,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.007572034025192261</v>
+        <v>0.007324953222274781</v>
       </c>
       <c r="J55">
-        <v>55.82</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -3646,10 +3704,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.002514527577161789</v>
+        <v>0.002447302311658859</v>
       </c>
       <c r="J56">
-        <v>84.23999999999999</v>
+        <v>84.54000000000001</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -3660,10 +3718,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.007560013508796692</v>
+        <v>0.00742130069732666</v>
       </c>
       <c r="J57">
-        <v>56.06</v>
+        <v>55.72</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -3674,10 +3732,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.002558469688892364</v>
+        <v>0.002458545780181885</v>
       </c>
       <c r="J58">
-        <v>84.02</v>
+        <v>84.84</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -3688,10 +3746,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.007608950090408326</v>
+        <v>0.007142345356941224</v>
       </c>
       <c r="J59">
-        <v>56.1</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -3702,10 +3760,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.002536191546916962</v>
+        <v>0.002527950203418732</v>
       </c>
       <c r="J60">
-        <v>84.26000000000001</v>
+        <v>84.18000000000001</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -3716,10 +3774,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0074755939245224</v>
+        <v>0.00720870053768158</v>
       </c>
       <c r="J61">
-        <v>57.02</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -3730,10 +3788,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.002612633883953094</v>
+        <v>0.002447893840074539</v>
       </c>
       <c r="J62">
-        <v>83.92</v>
+        <v>84.54000000000001</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -3744,10 +3802,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.007711304807662964</v>
+        <v>0.007204210543632507</v>
       </c>
       <c r="J63">
-        <v>55.92</v>
+        <v>56.06</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -3758,10 +3816,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.002556237775087357</v>
+        <v>0.002452341794967651</v>
       </c>
       <c r="J64">
-        <v>84.28</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3772,10 +3830,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.007555917572975158</v>
+        <v>0.007182356929779052</v>
       </c>
       <c r="J65">
-        <v>55.88</v>
+        <v>56.22</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3786,10 +3844,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.00251021791100502</v>
+        <v>0.002459380549192429</v>
       </c>
       <c r="J66">
-        <v>84.31999999999999</v>
+        <v>84.36</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3800,10 +3858,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.007581297588348389</v>
+        <v>0.007140729784965516</v>
       </c>
       <c r="J67">
-        <v>55.88</v>
+        <v>56.48</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -3814,10 +3872,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.002507549339532852</v>
+        <v>0.0024741594851017</v>
       </c>
       <c r="J68">
-        <v>84.36</v>
+        <v>84.26000000000001</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3828,10 +3886,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.007550859546661377</v>
+        <v>0.007159496140480041</v>
       </c>
       <c r="J69">
-        <v>55.96</v>
+        <v>56.32</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -3842,10 +3900,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.00251774560213089</v>
+        <v>0.002478296929597854</v>
       </c>
       <c r="J70">
-        <v>84.42</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3856,10 +3914,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.007604214978218078</v>
+        <v>0.007200883913040161</v>
       </c>
       <c r="J71">
-        <v>55.82</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -3870,10 +3928,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.00251170893907547</v>
+        <v>0.002465303021669388</v>
       </c>
       <c r="J72">
-        <v>84.48</v>
+        <v>84.34</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3884,10 +3942,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.007593068528175354</v>
+        <v>0.007195766949653626</v>
       </c>
       <c r="J73">
-        <v>55.94</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -3898,10 +3956,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.002515498632192612</v>
+        <v>0.002472350203990936</v>
       </c>
       <c r="J74">
-        <v>84.34</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -3912,10 +3970,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.00756149320602417</v>
+        <v>0.007183995580673218</v>
       </c>
       <c r="J75">
-        <v>55.9</v>
+        <v>56.46</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -3926,10 +3984,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.002505374211072922</v>
+        <v>0.002480792737007141</v>
       </c>
       <c r="J76">
-        <v>84.28</v>
+        <v>84.58</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -3940,10 +3998,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.007558281135559082</v>
+        <v>0.007179508399963379</v>
       </c>
       <c r="J77">
-        <v>55.9</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -3954,10 +4012,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.002505656105279923</v>
+        <v>0.002462491375207901</v>
       </c>
       <c r="J78">
-        <v>84.3</v>
+        <v>84.34</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -3968,10 +4026,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.007551145911216736</v>
+        <v>0.007183698916435242</v>
       </c>
       <c r="J79">
-        <v>55.88</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -3982,10 +4040,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.002507136052846908</v>
+        <v>0.002462842792272568</v>
       </c>
       <c r="J80">
-        <v>84.40000000000001</v>
+        <v>84.36</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -3996,10 +4054,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.007548320293426514</v>
+        <v>0.007191455221176147</v>
       </c>
       <c r="J81">
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -4010,10 +4068,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.002509466022253036</v>
+        <v>0.002460381823778153</v>
       </c>
       <c r="J82">
-        <v>84.42</v>
+        <v>84.36</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -4024,10 +4082,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.007545377492904663</v>
+        <v>0.007179179835319519</v>
       </c>
       <c r="J83">
-        <v>55.9</v>
+        <v>56.28</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -4038,10 +4096,38 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.00251036406159401</v>
+        <v>0.002464906507730484</v>
       </c>
       <c r="J84">
-        <v>84.38</v>
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>0.007187396264076233</v>
+      </c>
+      <c r="J85">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>42</v>
+      </c>
+      <c r="I86">
+        <v>0.002464203488826752</v>
+      </c>
+      <c r="J86">
+        <v>84.36</v>
       </c>
     </row>
   </sheetData>
